--- a/logistic_regression_sampling_comparison.xlsx
+++ b/logistic_regression_sampling_comparison.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7895</v>
+        <v>0.7961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6073</v>
+        <v>0.6128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7786999999999999</v>
+        <v>0.7842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7895</v>
+        <v>0.7961</v>
       </c>
       <c r="G2" t="n">
-        <v>0.775</v>
+        <v>0.7803</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9162</v>
+        <v>0.9173</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7748</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +540,10 @@
         <v>0.7508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9136</v>
+        <v>0.9146</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7641</v>
+        <v>0.7605</v>
       </c>
     </row>
     <row r="4">
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7105</v>
+        <v>0.7171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6181</v>
+        <v>0.624</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7266</v>
+        <v>0.7321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7105</v>
+        <v>0.7171</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8023</v>
+        <v>0.8028</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9127</v>
+        <v>0.915</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7689</v>
+        <v>0.7687</v>
       </c>
     </row>
     <row r="5">
@@ -594,22 +594,22 @@
         <v>0.7105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6223</v>
+        <v>0.6188</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7289</v>
+        <v>0.7256</v>
       </c>
       <c r="F5" t="n">
         <v>0.7105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8188</v>
+        <v>0.7972</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8984</v>
+        <v>0.9036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7509</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +624,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.7368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6561</v>
+        <v>0.6499</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7641</v>
+        <v>0.7546</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.7368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8013</v>
+        <v>0.8202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9107</v>
+        <v>0.9091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.773</v>
+        <v>0.7723</v>
       </c>
     </row>
   </sheetData>
